--- a/data/trans_dic/Viv_Temp_insuf-Clase-trans_dic.xlsx
+++ b/data/trans_dic/Viv_Temp_insuf-Clase-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.4040121413704847</v>
+        <v>0.4040121413704846</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.3522963098306189</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.3796853032955963</v>
+        <v>0.3796853032955964</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3595315675095822</v>
+        <v>0.3594556606246085</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3135695405188245</v>
+        <v>0.3137781543238237</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3506422050046711</v>
+        <v>0.350254217629503</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4494130253755326</v>
+        <v>0.4459718555792969</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3956634418317316</v>
+        <v>0.3895459857615305</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4090502295918375</v>
+        <v>0.4047496393586246</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.365859123679773</v>
+        <v>0.3658591236797729</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.395278120539768</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3796048267449283</v>
+        <v>0.3796048267449282</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3186665380872761</v>
+        <v>0.3240700871426477</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3519634333918413</v>
+        <v>0.3566022388615913</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3480994444927716</v>
+        <v>0.3482803652428767</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4168410022574202</v>
+        <v>0.4169494656443327</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4374560752991392</v>
+        <v>0.4362373170900832</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4102453405833981</v>
+        <v>0.4107927859168063</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.3759908851394332</v>
+        <v>0.3759908851394331</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.4171764267177496</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3299858189079091</v>
+        <v>0.3330104051076549</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.358951423250717</v>
+        <v>0.3520869508355204</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3528325516432162</v>
+        <v>0.3534528598947331</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4222081934165024</v>
+        <v>0.4219694814578024</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4774560467442485</v>
+        <v>0.4799414388386093</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.423856987193287</v>
+        <v>0.4277301648800159</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3507809553514064</v>
+        <v>0.3534873133974749</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3218413184509664</v>
+        <v>0.3233842965681372</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3504233838876708</v>
+        <v>0.3487462994210253</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4145936598908279</v>
+        <v>0.416096338582395</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3792434681210945</v>
+        <v>0.3823557277284287</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3969682622835848</v>
+        <v>0.3894062819367052</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.41884218136158</v>
+        <v>0.4188421813615801</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.4866664260772758</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.4591448293178947</v>
+        <v>0.4591448293178946</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3750318092235299</v>
+        <v>0.3742127856151367</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4595114017029302</v>
+        <v>0.4589217419010416</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4338733852381785</v>
+        <v>0.4354471045871178</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4624413509337141</v>
+        <v>0.4596721549712067</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.517810834146728</v>
+        <v>0.5148727694913005</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4849759619701061</v>
+        <v>0.4846621795399447</v>
       </c>
     </row>
     <row r="19">
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.3890674679729613</v>
+        <v>0.3890674679729614</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.4382278225576441</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2889714562739881</v>
+        <v>0.3034130194699842</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4053973972192733</v>
+        <v>0.4053335791170403</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3930088550938179</v>
+        <v>0.3933873914358932</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.4916389081127091</v>
+        <v>0.5054544362535791</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.4693370143404808</v>
+        <v>0.4713937011549855</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4626928314022666</v>
+        <v>0.4614089194802973</v>
       </c>
     </row>
     <row r="22">
@@ -897,7 +897,7 @@
         <v>0.389590209439871</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.4112534896934971</v>
+        <v>0.4112534896934972</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.4007203243435302</v>
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3720836930136353</v>
+        <v>0.3723622605983329</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3981450212147072</v>
+        <v>0.3964240434562477</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3896225614108798</v>
+        <v>0.3888100944695351</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4080316910315319</v>
+        <v>0.4089452861162204</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4263441452903746</v>
+        <v>0.4262579859035062</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4125959776863662</v>
+        <v>0.412666116308245</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>197401</v>
+        <v>197359</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>152917</v>
+        <v>153018</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>363516</v>
+        <v>363113</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>246750</v>
+        <v>244861</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>192951</v>
+        <v>189968</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>424068</v>
+        <v>419610</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>153751</v>
+        <v>156358</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>148931</v>
+        <v>150894</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>315247</v>
+        <v>315411</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>201118</v>
+        <v>201170</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>185106</v>
+        <v>184591</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>371528</v>
+        <v>372024</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>155625</v>
+        <v>157052</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>67049</v>
+        <v>65766</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>232306</v>
+        <v>232714</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>199118</v>
+        <v>199006</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>89184</v>
+        <v>89648</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>279068</v>
+        <v>281618</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>397029</v>
+        <v>400092</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>276862</v>
+        <v>278189</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>698074</v>
+        <v>694733</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>469255</v>
+        <v>470956</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>326242</v>
+        <v>328919</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>790795</v>
+        <v>775731</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>212599</v>
+        <v>212134</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>381460</v>
+        <v>380970</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>606132</v>
+        <v>608330</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>262150</v>
+        <v>260580</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>429857</v>
+        <v>427418</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>677523</v>
+        <v>677085</v>
       </c>
     </row>
     <row r="24">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>68077</v>
+        <v>71480</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>342269</v>
+        <v>342215</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>424397</v>
+        <v>424806</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>115823</v>
+        <v>119077</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>396252</v>
+        <v>397989</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>499646</v>
+        <v>498260</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1279020</v>
+        <v>1279977</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1446167</v>
+        <v>1439916</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>2754520</v>
+        <v>2748777</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>1402589</v>
+        <v>1405730</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>1548594</v>
+        <v>1548281</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>2916936</v>
+        <v>2917432</v>
       </c>
     </row>
     <row r="32">
